--- a/ArticleManage/main_working_folder/output_folders/Data 103 Effect of Activating Agent/Data103_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 103 Effect of Activating Agent/Data103_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="K2CO3" sheetId="1" r:id="rId1"/>
-    <sheet name="KOH" sheetId="2" r:id="rId4"/>
-    <sheet name="Na2CO3" sheetId="3" r:id="rId5"/>
-    <sheet name="NaOH" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 K2CO3  0-1-0-1500 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 KOH  0-1-0-1500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 Na2CO3  0-1-0-1500 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 NaOH  0-1-0-1500 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki K2CO3</a:t>
+              <a:t>Izoterma adsorpcji probki K2CO3 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>K2CO3!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 K2CO3  0-1-0-1500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>K2CO3!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 K2CO3  0-1-0-1500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KOH</a:t>
+              <a:t>Izoterma adsorpcji probki KOH z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>KOH!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 KOH  0-1-0-1500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>KOH!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 KOH  0-1-0-1500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Na2CO3</a:t>
+              <a:t>Izoterma adsorpcji probki Na2CO3 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Na2CO3!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 Na2CO3  0-1-0-1500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Na2CO3!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 Na2CO3  0-1-0-1500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki NaOH</a:t>
+              <a:t>Izoterma adsorpcji probki NaOH z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>NaOH!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 NaOH  0-1-0-1500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NaOH!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 NaOH  0-1-0-1500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 103 Effect of Activating Agent/Data103_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 103 Effect of Activating Agent/Data103_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,389 +4034,429 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0039</v>
+        <v>0.255</v>
       </c>
       <c r="B3" s="0">
-        <v>206.1103</v>
+        <v>347.3072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0088</v>
+        <v>0.2805</v>
       </c>
       <c r="B4" s="0">
-        <v>267.9175</v>
+        <v>348.9942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0308</v>
+        <v>0.3044</v>
       </c>
       <c r="B5" s="0">
-        <v>303.6328</v>
+        <v>351.8044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0543</v>
+        <v>0.3296</v>
       </c>
       <c r="B6" s="0">
-        <v>314.9244</v>
+        <v>353.5293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0777</v>
+        <v>0.3539</v>
       </c>
       <c r="B7" s="0">
-        <v>322.5246</v>
+        <v>356.1222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1012</v>
+        <v>0.3806</v>
       </c>
       <c r="B8" s="0">
-        <v>327.8312</v>
+        <v>357.6997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1251</v>
+        <v>0.4041</v>
       </c>
       <c r="B9" s="0">
-        <v>327.2307</v>
+        <v>360.199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.149</v>
+        <v>0.429</v>
       </c>
       <c r="B10" s="0">
-        <v>332.8771</v>
+        <v>361.5825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1722</v>
+        <v>0.4541</v>
       </c>
       <c r="B11" s="0">
-        <v>336.2063</v>
+        <v>364.5525</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1958</v>
+        <v>0.4784</v>
       </c>
       <c r="B12" s="0">
-        <v>339.5625</v>
+        <v>366.4965</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2188</v>
+        <v>0.5041</v>
       </c>
       <c r="B13" s="0">
-        <v>341.3153</v>
+        <v>368.9446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.242</v>
+        <v>0.5284</v>
       </c>
       <c r="B14" s="0">
-        <v>342.8839</v>
+        <v>371.5776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2651</v>
+        <v>0.5535</v>
       </c>
       <c r="B15" s="0">
-        <v>344.51</v>
+        <v>372.445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2884</v>
+        <v>0.5784</v>
       </c>
       <c r="B16" s="0">
-        <v>349.0091</v>
+        <v>375.2479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3113</v>
+        <v>0.6031</v>
       </c>
       <c r="B17" s="0">
-        <v>351.8173</v>
+        <v>377.9322</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3349</v>
+        <v>0.628</v>
       </c>
       <c r="B18" s="0">
-        <v>353.5392</v>
+        <v>380.287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3581</v>
+        <v>0.654</v>
       </c>
       <c r="B19" s="0">
-        <v>353.3141</v>
+        <v>382.9837</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3821</v>
+        <v>0.6775</v>
       </c>
       <c r="B20" s="0">
-        <v>356.764</v>
+        <v>383.3937</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4046</v>
+        <v>0.7025</v>
       </c>
       <c r="B21" s="0">
-        <v>360.2</v>
+        <v>385.7869</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.429</v>
+        <v>0.7254</v>
       </c>
       <c r="B22" s="0">
-        <v>361.5825</v>
+        <v>400.6939</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4541</v>
+        <v>0.7526</v>
       </c>
       <c r="B23" s="0">
-        <v>361.7365</v>
+        <v>404.1563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4784</v>
+        <v>0.7777</v>
       </c>
       <c r="B24" s="0">
-        <v>366.4965</v>
+        <v>407.3744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5036</v>
+        <v>0.8029</v>
       </c>
       <c r="B25" s="0">
-        <v>368.0049</v>
+        <v>410.4581</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5279</v>
+        <v>0.827</v>
       </c>
       <c r="B26" s="0">
-        <v>370.6379</v>
+        <v>414.4308</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.553</v>
+        <v>0.8513</v>
       </c>
       <c r="B27" s="0">
-        <v>371.5053</v>
+        <v>416.8114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5773</v>
+        <v>0.8763</v>
       </c>
       <c r="B28" s="0">
-        <v>374.3073</v>
+        <v>420.3921</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6015</v>
+        <v>0.9007</v>
       </c>
       <c r="B29" s="0">
-        <v>377.9292</v>
+        <v>422.7784</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6249</v>
+        <v>0.9254</v>
       </c>
       <c r="B30" s="0">
-        <v>380.281</v>
+        <v>427.1173</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6498</v>
+        <v>0.9501</v>
       </c>
       <c r="B31" s="0">
-        <v>382.9758</v>
+        <v>431.71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6717</v>
+        <v>0.9825</v>
       </c>
       <c r="B32" s="0">
-        <v>383.3827</v>
+        <v>439.3821</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6951</v>
+        <v>0.9949</v>
       </c>
       <c r="B33" s="0">
-        <v>385.773</v>
+        <v>453.1922</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7185</v>
+        <v>0.2303</v>
       </c>
       <c r="B34" s="0">
-        <v>395.049</v>
+        <v>342.1362</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7426</v>
+        <v>0.2049</v>
       </c>
       <c r="B35" s="0">
-        <v>401.0716</v>
+        <v>340.2112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7653</v>
+        <v>0.1806</v>
       </c>
       <c r="B36" s="0">
-        <v>404.1801</v>
+        <v>338.2882</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7883</v>
+        <v>0.1552</v>
       </c>
       <c r="B37" s="0">
-        <v>407.3942</v>
+        <v>336.3632</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8114</v>
+        <v>0.1309</v>
       </c>
       <c r="B38" s="0">
-        <v>411.4126</v>
+        <v>332.5628</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.835</v>
+        <v>0.1065</v>
       </c>
       <c r="B39" s="0">
-        <v>414.4457</v>
+        <v>326.8851</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8582</v>
+        <v>0.0949</v>
       </c>
       <c r="B40" s="0">
-        <v>416.8243</v>
+        <v>324.9859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8816</v>
+        <v>0.0875</v>
       </c>
       <c r="B41" s="0">
-        <v>420.402</v>
+        <v>323.0947</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9055</v>
+        <v>0.0653</v>
       </c>
       <c r="B42" s="0">
-        <v>423.726</v>
+        <v>319.2983</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.928</v>
+        <v>0.0557</v>
       </c>
       <c r="B43" s="0">
-        <v>427.1223</v>
+        <v>315.5257</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9512</v>
+        <v>0.0462</v>
       </c>
       <c r="B44" s="0">
-        <v>431.712</v>
+        <v>311.7531</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.9804</v>
+        <v>0.0367</v>
       </c>
       <c r="B45" s="0">
-        <v>440.3168</v>
+        <v>307.9806</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9975</v>
+        <v>0.0272</v>
       </c>
       <c r="B46" s="0">
-        <v>451.3198</v>
+        <v>304.208</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.0155</v>
+        <v>0.0145</v>
       </c>
       <c r="B47" s="0">
-        <v>285.4127</v>
+        <v>291.0427</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.0049</v>
+        <v>0.0102</v>
       </c>
       <c r="B48" s="0">
-        <v>244.0911</v>
+        <v>276.016</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.0028</v>
+        <v>0.006</v>
       </c>
       <c r="B49" s="0">
-        <v>180.2573</v>
+        <v>262.8666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
+        <v>0.0049</v>
+      </c>
+      <c r="B50" s="0">
+        <v>242.2138</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0039</v>
+      </c>
+      <c r="B51" s="0">
+        <v>227.193</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0039</v>
+      </c>
+      <c r="B52" s="0">
+        <v>212.1742</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
         <v>0.0038</v>
       </c>
-      <c r="B50" s="0">
-        <v>138.9576</v>
-      </c>
-    </row>
-    <row r="51"/>
+      <c r="B53" s="0">
+        <v>187.7687</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0049</v>
+      </c>
+      <c r="B54" s="0">
+        <v>153.9784</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0049</v>
+      </c>
+      <c r="B55" s="0">
+        <v>135.2049</v>
+      </c>
+    </row>
+    <row r="56"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4425,7 +4465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4446,405 +4486,477 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0087</v>
+        <v>0.0125</v>
       </c>
       <c r="B3" s="0">
-        <v>524.3536</v>
+        <v>566.5675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0125</v>
+        <v>0.1289</v>
       </c>
       <c r="B4" s="0">
-        <v>566.5675</v>
+        <v>891.4773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.026</v>
+        <v>0.1517</v>
       </c>
       <c r="B5" s="0">
-        <v>627.055</v>
+        <v>932.5774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0415</v>
+        <v>0.1763</v>
       </c>
       <c r="B6" s="0">
-        <v>683.9132</v>
+        <v>974.0877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.061</v>
+        <v>0.2037</v>
       </c>
       <c r="B7" s="0">
-        <v>736.7126</v>
+        <v>1010.9375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0812</v>
+        <v>0.2305</v>
       </c>
       <c r="B8" s="0">
-        <v>789.6548</v>
+        <v>1041.7803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1033</v>
+        <v>0.2566</v>
       </c>
       <c r="B9" s="0">
-        <v>832.3338</v>
+        <v>1070.0205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1267</v>
+        <v>0.2835</v>
       </c>
       <c r="B10" s="0">
-        <v>884.9026</v>
+        <v>1092.9582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1486</v>
+        <v>0.3104</v>
       </c>
       <c r="B11" s="0">
-        <v>927.8781</v>
+        <v>1112.4546</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1721</v>
+        <v>0.3355</v>
       </c>
       <c r="B12" s="0">
-        <v>966.5704</v>
+        <v>1129.3047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1962</v>
+        <v>0.3627</v>
       </c>
       <c r="B13" s="0">
-        <v>1000.9711</v>
+        <v>1144.0259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2121</v>
+        <v>0.388</v>
       </c>
       <c r="B14" s="0">
-        <v>1019.4015</v>
+        <v>1154.8479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2337</v>
+        <v>0.4126</v>
       </c>
       <c r="B15" s="0">
-        <v>1045.541</v>
+        <v>1165.9448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2566</v>
+        <v>0.4381</v>
       </c>
       <c r="B16" s="0">
-        <v>1070.0205</v>
+        <v>1176.334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2813</v>
+        <v>0.463</v>
       </c>
       <c r="B17" s="0">
-        <v>1091.0769</v>
+        <v>1185.7705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3067</v>
+        <v>0.4881</v>
       </c>
       <c r="B18" s="0">
-        <v>1110.5704</v>
+        <v>1192.4815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3333</v>
+        <v>0.5132</v>
       </c>
       <c r="B19" s="0">
-        <v>1127.4234</v>
+        <v>1199.8907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3611</v>
+        <v>0.5394</v>
       </c>
       <c r="B20" s="0">
-        <v>1143.0842</v>
+        <v>1207.9809</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3853</v>
+        <v>0.5645</v>
       </c>
       <c r="B21" s="0">
-        <v>1154.843</v>
+        <v>1214.4851</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4116</v>
+        <v>0.5888</v>
       </c>
       <c r="B22" s="0">
-        <v>1165.9428</v>
+        <v>1220.2837</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4365</v>
+        <v>0.614</v>
       </c>
       <c r="B23" s="0">
-        <v>1174.4537</v>
+        <v>1227.2209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4619</v>
+        <v>0.6389</v>
       </c>
       <c r="B24" s="0">
-        <v>1183.8912</v>
+        <v>1233.4445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.487</v>
+        <v>0.664</v>
       </c>
       <c r="B25" s="0">
-        <v>1195.2955</v>
+        <v>1240.0372</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5148</v>
+        <v>0.6887</v>
       </c>
       <c r="B26" s="0">
-        <v>1199.8937</v>
+        <v>1246.0348</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5405</v>
+        <v>0.7132</v>
       </c>
       <c r="B27" s="0">
-        <v>1208.9216</v>
+        <v>1252.0592</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5645</v>
+        <v>0.738</v>
       </c>
       <c r="B28" s="0">
-        <v>1214.4851</v>
+        <v>1257.7596</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5888</v>
+        <v>0.763</v>
       </c>
       <c r="B29" s="0">
-        <v>1220.2837</v>
+        <v>1264.6387</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.614</v>
+        <v>0.7875</v>
       </c>
       <c r="B30" s="0">
-        <v>1226.2823</v>
+        <v>1271.5901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6394</v>
+        <v>0.8127</v>
       </c>
       <c r="B31" s="0">
-        <v>1232.5068</v>
+        <v>1277.2415</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6646</v>
+        <v>0.8374</v>
       </c>
       <c r="B32" s="0">
-        <v>1240.0382</v>
+        <v>1284.0714</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6897</v>
+        <v>0.8621</v>
       </c>
       <c r="B33" s="0">
-        <v>1246.0368</v>
+        <v>1292.2126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7142</v>
+        <v>0.8865</v>
       </c>
       <c r="B34" s="0">
-        <v>1252.0611</v>
+        <v>1299.3738</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.738</v>
+        <v>0.9108</v>
       </c>
       <c r="B35" s="0">
-        <v>1257.7596</v>
+        <v>1307.1822</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7635</v>
+        <v>0.9352</v>
       </c>
       <c r="B36" s="0">
-        <v>1267.4557</v>
+        <v>1317.274</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7875</v>
+        <v>0.9593</v>
       </c>
       <c r="B37" s="0">
-        <v>1271.5901</v>
+        <v>1329.7297</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8127</v>
+        <v>0.9801</v>
       </c>
       <c r="B38" s="0">
-        <v>1277.2415</v>
+        <v>1353.81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.839</v>
+        <v>0.9939</v>
       </c>
       <c r="B39" s="0">
-        <v>1281.2584</v>
+        <v>1391.2058</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8621</v>
+        <v>0.005</v>
       </c>
       <c r="B40" s="0">
-        <v>1292.2126</v>
+        <v>367.9962</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8876</v>
+        <v>0.0039</v>
       </c>
       <c r="B41" s="0">
-        <v>1298.4371</v>
+        <v>339.834</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9108</v>
+        <v>0.0039</v>
       </c>
       <c r="B42" s="0">
-        <v>1307.1822</v>
+        <v>304.1643</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9362</v>
+        <v>0.1111</v>
       </c>
       <c r="B43" s="0">
-        <v>1316.3373</v>
+        <v>856.3055</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9598</v>
+        <v>0.1016</v>
       </c>
       <c r="B44" s="0">
-        <v>1335.3628</v>
+        <v>837.5142</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.9823</v>
+        <v>0.0921</v>
       </c>
       <c r="B45" s="0">
-        <v>1356.63</v>
+        <v>818.7228</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9955</v>
+        <v>0.0857</v>
       </c>
       <c r="B46" s="0">
-        <v>1392.1475</v>
+        <v>803.6921</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.0072</v>
+        <v>0.0783</v>
       </c>
       <c r="B47" s="0">
-        <v>490.0278</v>
+        <v>786.782</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.0061</v>
+        <v>0.0677</v>
       </c>
       <c r="B48" s="0">
-        <v>441.2148</v>
+        <v>762.3567</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.0061</v>
+        <v>0.0582</v>
       </c>
       <c r="B49" s="0">
-        <v>409.2998</v>
+        <v>734.1785</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.005</v>
+        <v>0.0465</v>
       </c>
       <c r="B50" s="0">
-        <v>367.9962</v>
+        <v>705.9965</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.0039</v>
+        <v>0.038</v>
       </c>
       <c r="B51" s="0">
-        <v>339.834</v>
+        <v>679.6977</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.0039</v>
+        <v>0.0306</v>
       </c>
       <c r="B52" s="0">
-        <v>304.1643</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>653.4009</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0221</v>
+      </c>
+      <c r="B53" s="0">
+        <v>621.4701</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0147</v>
+      </c>
+      <c r="B54" s="0">
+        <v>585.7866</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0115</v>
+      </c>
+      <c r="B55" s="0">
+        <v>555.743</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.0104</v>
+      </c>
+      <c r="B56" s="0">
+        <v>542.5996</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.0072</v>
+      </c>
+      <c r="B57" s="0">
+        <v>510.6787</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.0072</v>
+      </c>
+      <c r="B58" s="0">
+        <v>486.2731</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.0051</v>
+      </c>
+      <c r="B59" s="0">
+        <v>437.4581</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.0061</v>
+      </c>
+      <c r="B60" s="0">
+        <v>411.1772</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.005</v>
+      </c>
+      <c r="B61" s="0">
+        <v>392.4017</v>
+      </c>
+    </row>
+    <row r="62"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4853,7 +4965,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4874,357 +4986,413 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0214</v>
+        <v>0.107</v>
       </c>
       <c r="B3" s="0">
-        <v>113.8972</v>
+        <v>143.3504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0483</v>
+        <v>0.1299</v>
       </c>
       <c r="B4" s="0">
-        <v>130.9504</v>
+        <v>146.088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0734</v>
+        <v>0.1556</v>
       </c>
       <c r="B5" s="0">
-        <v>134.7354</v>
+        <v>149.1339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0986</v>
+        <v>0.1802</v>
       </c>
       <c r="B6" s="0">
-        <v>139.5798</v>
+        <v>151.5917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1241</v>
+        <v>0.2048</v>
       </c>
       <c r="B7" s="0">
-        <v>146.0771</v>
+        <v>154.5427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1498</v>
+        <v>0.2297</v>
       </c>
       <c r="B8" s="0">
-        <v>148.1843</v>
+        <v>155.1249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1744</v>
+        <v>0.2548</v>
       </c>
       <c r="B9" s="0">
-        <v>150.6421</v>
+        <v>158.3738</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1995</v>
+        <v>0.2789</v>
       </c>
       <c r="B10" s="0">
-        <v>153.5941</v>
+        <v>159.1769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2255</v>
+        <v>0.3044</v>
       </c>
       <c r="B11" s="0">
-        <v>155.117</v>
+        <v>162.9201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.25</v>
+        <v>0.3281</v>
       </c>
       <c r="B12" s="0">
-        <v>157.4262</v>
+        <v>165.7027</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2757</v>
+        <v>0.353</v>
       </c>
       <c r="B13" s="0">
-        <v>161.0483</v>
+        <v>168.1972</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3002</v>
+        <v>0.3791</v>
       </c>
       <c r="B14" s="0">
-        <v>163.8508</v>
+        <v>170.9847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3255</v>
+        <v>0.4039</v>
       </c>
       <c r="B15" s="0">
-        <v>164.759</v>
+        <v>174.6682</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3515</v>
+        <v>0.4288</v>
       </c>
       <c r="B16" s="0">
-        <v>170.0716</v>
+        <v>176.1471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3759</v>
+        <v>0.4536</v>
       </c>
       <c r="B17" s="0">
-        <v>172.8561</v>
+        <v>177.6335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4017</v>
+        <v>0.4788</v>
       </c>
       <c r="B18" s="0">
-        <v>172.7869</v>
+        <v>180.2221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4262</v>
+        <v>0.5043</v>
       </c>
       <c r="B19" s="0">
-        <v>175.2035</v>
+        <v>183.6747</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.452</v>
+        <v>0.5284</v>
       </c>
       <c r="B20" s="0">
-        <v>179.5079</v>
+        <v>184.4429</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4772</v>
+        <v>0.5536</v>
       </c>
       <c r="B21" s="0">
-        <v>179.2804</v>
+        <v>186.382</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5016</v>
+        <v>0.5783</v>
       </c>
       <c r="B22" s="0">
-        <v>181.7924</v>
+        <v>188.9326</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5268</v>
+        <v>0.6039</v>
       </c>
       <c r="B23" s="0">
-        <v>186.3173</v>
+        <v>190.8051</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5521</v>
+        <v>0.6279</v>
       </c>
       <c r="B24" s="0">
-        <v>188.2564</v>
+        <v>193.8006</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5772</v>
+        <v>0.6527</v>
       </c>
       <c r="B25" s="0">
-        <v>188.9306</v>
+        <v>196.1816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6023</v>
+        <v>0.6776</v>
       </c>
       <c r="B26" s="0">
-        <v>190.8022</v>
+        <v>198.3471</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6285</v>
+        <v>0.7027</v>
       </c>
       <c r="B27" s="0">
-        <v>194.7403</v>
+        <v>200.2896</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6537</v>
+        <v>0.7274</v>
       </c>
       <c r="B28" s="0">
-        <v>198.0609</v>
+        <v>202.1817</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6797</v>
+        <v>0.7525</v>
       </c>
       <c r="B29" s="0">
-        <v>197.4124</v>
+        <v>205.2257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7049</v>
+        <v>0.7784</v>
       </c>
       <c r="B30" s="0">
-        <v>200.2935</v>
+        <v>207.0656</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7306</v>
+        <v>0.8023</v>
       </c>
       <c r="B31" s="0">
-        <v>204.065</v>
+        <v>209.7754</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7551</v>
+        <v>0.8279</v>
       </c>
       <c r="B32" s="0">
-        <v>207.108</v>
+        <v>213.5254</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7795</v>
+        <v>0.8522</v>
       </c>
       <c r="B33" s="0">
-        <v>207.0676</v>
+        <v>215.4484</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8054</v>
+        <v>0.8768</v>
       </c>
       <c r="B34" s="0">
-        <v>209.7813</v>
+        <v>217.5317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8306</v>
+        <v>0.9019</v>
       </c>
       <c r="B35" s="0">
-        <v>213.5304</v>
+        <v>220.1897</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8559</v>
+        <v>0.926</v>
       </c>
       <c r="B36" s="0">
-        <v>215.4553</v>
+        <v>223.3841</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.881</v>
+        <v>0.9513</v>
       </c>
       <c r="B37" s="0">
-        <v>219.4169</v>
+        <v>226.386</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9062</v>
+        <v>0.98</v>
       </c>
       <c r="B38" s="0">
-        <v>223.0137</v>
+        <v>232.314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9307</v>
+        <v>0.9959</v>
       </c>
       <c r="B39" s="0">
-        <v>225.2704</v>
+        <v>251.5837</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9566</v>
+        <v>0.0958</v>
       </c>
       <c r="B40" s="0">
-        <v>228.2732</v>
+        <v>141.0077</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9821</v>
+        <v>0.0863</v>
       </c>
       <c r="B41" s="0">
-        <v>237.95</v>
+        <v>139.1125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1.0005</v>
+        <v>0.0662</v>
       </c>
       <c r="B42" s="0">
-        <v>249.9293</v>
+        <v>137.1974</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.0091</v>
+        <v>0.0546</v>
       </c>
       <c r="B43" s="0">
-        <v>112.6846</v>
+        <v>135.2982</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.0059</v>
+        <v>0.045</v>
       </c>
       <c r="B44" s="0">
-        <v>90.1505</v>
+        <v>131.5256</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.0048</v>
+        <v>0.0366</v>
       </c>
       <c r="B45" s="0">
-        <v>63.8656</v>
+        <v>131.5097</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
+        <v>0.0239</v>
+      </c>
+      <c r="B46" s="0">
+        <v>127.7312</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0122</v>
+      </c>
+      <c r="B47" s="0">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0059</v>
+      </c>
+      <c r="B48" s="0">
+        <v>107.0466</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0048</v>
+      </c>
+      <c r="B49" s="0">
+        <v>90.1485</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0048</v>
+      </c>
+      <c r="B50" s="0">
+        <v>73.2524</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0048</v>
+      </c>
+      <c r="B51" s="0">
+        <v>50.7242</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0048</v>
+      </c>
+      <c r="B52" s="0">
+        <v>30.0733</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
         <v>0.0037</v>
       </c>
-      <c r="B46" s="0">
-        <v>35.7034</v>
-      </c>
-    </row>
-    <row r="47"/>
+      <c r="B53" s="0">
+        <v>15.0525</v>
+      </c>
+    </row>
+    <row r="54"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5233,7 +5401,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5254,341 +5422,373 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0031</v>
+        <v>0.106</v>
       </c>
       <c r="B3" s="0">
-        <v>296.2341</v>
+        <v>381.7458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0207</v>
+        <v>0.1288</v>
       </c>
       <c r="B4" s="0">
-        <v>332.7013</v>
+        <v>388.2765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0442</v>
+        <v>0.1534</v>
       </c>
       <c r="B5" s="0">
-        <v>348.8653</v>
+        <v>396.0566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0677</v>
+        <v>0.1796</v>
       </c>
       <c r="B6" s="0">
-        <v>365.2851</v>
+        <v>400.6152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0912</v>
+        <v>0.2042</v>
       </c>
       <c r="B7" s="0">
-        <v>375.7184</v>
+        <v>405.0969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.114</v>
+        <v>0.2295</v>
       </c>
       <c r="B8" s="0">
-        <v>383.638</v>
+        <v>409.0128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1368</v>
+        <v>0.2546</v>
       </c>
       <c r="B9" s="0">
-        <v>390.1687</v>
+        <v>411.4405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1603</v>
+        <v>0.2792</v>
       </c>
       <c r="B10" s="0">
-        <v>396.0695</v>
+        <v>416.8534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1833</v>
+        <v>0.3049</v>
       </c>
       <c r="B11" s="0">
-        <v>399.6835</v>
+        <v>420.7414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2063</v>
+        <v>0.3293</v>
       </c>
       <c r="B12" s="0">
-        <v>405.1009</v>
+        <v>423.8078</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2295</v>
+        <v>0.3536</v>
       </c>
       <c r="B13" s="0">
-        <v>409.0128</v>
+        <v>426.9644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2546</v>
+        <v>0.3796</v>
       </c>
       <c r="B14" s="0">
-        <v>411.4405</v>
+        <v>431.3866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2792</v>
+        <v>0.4039</v>
       </c>
       <c r="B15" s="0">
-        <v>416.8534</v>
+        <v>432.8749</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3049</v>
+        <v>0.429</v>
       </c>
       <c r="B16" s="0">
-        <v>420.7414</v>
+        <v>436.3937</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3293</v>
+        <v>0.4542</v>
       </c>
       <c r="B17" s="0">
-        <v>423.8078</v>
+        <v>439.7767</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3536</v>
+        <v>0.4793</v>
       </c>
       <c r="B18" s="0">
-        <v>426.9644</v>
+        <v>442.3042</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3807</v>
+        <v>0.5036</v>
       </c>
       <c r="B19" s="0">
-        <v>431.3886</v>
+        <v>445.2623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4039</v>
+        <v>0.528</v>
       </c>
       <c r="B20" s="0">
-        <v>432.8749</v>
+        <v>447.9531</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.429</v>
+        <v>0.5537</v>
       </c>
       <c r="B21" s="0">
-        <v>436.3937</v>
+        <v>451.506</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4553</v>
+        <v>0.5794</v>
       </c>
       <c r="B22" s="0">
-        <v>438.84</v>
+        <v>454.2594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4793</v>
+        <v>0.6043</v>
       </c>
       <c r="B23" s="0">
-        <v>442.3042</v>
+        <v>458.5442</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5036</v>
+        <v>0.6285</v>
       </c>
       <c r="B24" s="0">
-        <v>445.2623</v>
+        <v>460.9252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.529</v>
+        <v>0.6528</v>
       </c>
       <c r="B25" s="0">
-        <v>447.9551</v>
+        <v>463.9419</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5542</v>
+        <v>0.6771</v>
       </c>
       <c r="B26" s="0">
-        <v>451.507</v>
+        <v>465.3988</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5799</v>
+        <v>0.7028</v>
       </c>
       <c r="B27" s="0">
-        <v>454.2604</v>
+        <v>470.5705</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6054</v>
+        <v>0.7268</v>
       </c>
       <c r="B28" s="0">
-        <v>458.5462</v>
+        <v>474.7797</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6285</v>
+        <v>0.752</v>
       </c>
       <c r="B29" s="0">
-        <v>460.9252</v>
+        <v>477.7501</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6528</v>
+        <v>0.7773</v>
       </c>
       <c r="B30" s="0">
-        <v>463.9419</v>
+        <v>481.7154</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6771</v>
+        <v>0.7999</v>
       </c>
       <c r="B31" s="0">
-        <v>465.3988</v>
+        <v>486.8196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7023</v>
+        <v>0.8259</v>
       </c>
       <c r="B32" s="0">
-        <v>468.6921</v>
+        <v>490.4526</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7258</v>
+        <v>0.8515</v>
       </c>
       <c r="B33" s="0">
-        <v>474.7777</v>
+        <v>494.9417</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.752</v>
+        <v>0.8758</v>
       </c>
       <c r="B34" s="0">
-        <v>477.7501</v>
+        <v>500.9575</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7789</v>
+        <v>0.9005</v>
       </c>
       <c r="B35" s="0">
-        <v>481.7184</v>
+        <v>507.9924</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8015</v>
+        <v>0.9276</v>
       </c>
       <c r="B36" s="0">
-        <v>486.8225</v>
+        <v>518.1565</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8275</v>
+        <v>0.9504</v>
       </c>
       <c r="B37" s="0">
-        <v>490.4556</v>
+        <v>530.6099</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8515</v>
+        <v>0.9796</v>
       </c>
       <c r="B38" s="0">
-        <v>494.9417</v>
+        <v>584.0242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8758</v>
+        <v>0.9941</v>
       </c>
       <c r="B39" s="0">
-        <v>500.0189</v>
+        <v>654.1122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9021</v>
+        <v>0.0949</v>
       </c>
       <c r="B40" s="0">
-        <v>508.9341</v>
+        <v>377.5517</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.926</v>
+        <v>0.0843</v>
       </c>
       <c r="B41" s="0">
-        <v>517.2148</v>
+        <v>373.7771</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9504</v>
+        <v>0.0653</v>
       </c>
       <c r="B42" s="0">
-        <v>530.6099</v>
+        <v>364.3547</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9765</v>
+        <v>0.0537</v>
       </c>
       <c r="B43" s="0">
-        <v>579.3249</v>
+        <v>358.7008</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9941</v>
+        <v>0.0463</v>
       </c>
       <c r="B44" s="0">
-        <v>651.2962</v>
-      </c>
-    </row>
-    <row r="45"/>
+        <v>353.0548</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0346</v>
+      </c>
+      <c r="B45" s="0">
+        <v>343.6462</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0145</v>
+      </c>
+      <c r="B46" s="0">
+        <v>313.5709</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.006</v>
+      </c>
+      <c r="B47" s="0">
+        <v>294.7815</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0049</v>
+      </c>
+      <c r="B48" s="0">
+        <v>157.7331</v>
+      </c>
+    </row>
+    <row r="49"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 103 Effect of Activating Agent/Data103_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 103 Effect of Activating Agent/Data103_all_graphs_excel.xlsx
@@ -5,10 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 K2CO3  0-1-0-1500 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 KOH  0-1-0-1500 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 Na2CO3  0-1-0-1500 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 NaOH  0-1-0-1500 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 K2CO3  0&amp;1&amp;0&amp;1500 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 KOH  0&amp;1&amp;0&amp;1500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 Na2CO3  0&amp;1&amp;0&amp;1500 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 NaOH  0&amp;1&amp;0&amp;1500 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4 3  0&amp;1&amp;-200&amp;1600 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4 3.5  0&amp;1&amp;-200&amp;1600 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 4 4  0&amp;1&amp;-200&amp;1600 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 4 4.5  0&amp;1&amp;-200&amp;1600 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 4 5  0&amp;1&amp;-200&amp;1600 " sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +173,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 K2CO3  0-1-0-1500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 K2CO3  0&amp;1&amp;0&amp;1500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 K2CO3  0-1-0-1500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 K2CO3  0&amp;1&amp;0&amp;1500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +487,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 KOH  0-1-0-1500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 KOH  0&amp;1&amp;0&amp;1500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 KOH  0-1-0-1500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 KOH  0&amp;1&amp;0&amp;1500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +801,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 Na2CO3  0-1-0-1500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 Na2CO3  0&amp;1&amp;0&amp;1500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 Na2CO3  0-1-0-1500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 Na2CO3  0&amp;1&amp;0&amp;1500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1115,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 NaOH  0-1-0-1500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 NaOH  0&amp;1&amp;0&amp;1500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 NaOH  0-1-0-1500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 NaOH  0&amp;1&amp;0&amp;1500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1201,6 +1206,1576 @@
           <c:orientation val="minMax"/>
           <c:max val="1500"/>
           <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 3 z wykresu 'Figure 4' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4 3  0&amp;1&amp;-200&amp;1600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4 3  0&amp;1&amp;-200&amp;1600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 3.5 z wykresu 'Figure 4' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4 3.5  0&amp;1&amp;-200&amp;1600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4 3.5  0&amp;1&amp;-200&amp;1600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 4 z wykresu 'Figure 4' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4 4  0&amp;1&amp;-200&amp;1600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4 4  0&amp;1&amp;-200&amp;1600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 4.5 z wykresu 'Figure 4' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4 4.5  0&amp;1&amp;-200&amp;1600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4 4.5  0&amp;1&amp;-200&amp;1600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 5 z wykresu 'Figure 4' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4 5  0&amp;1&amp;-200&amp;1600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4 5  0&amp;1&amp;-200&amp;1600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+          <c:min val="-200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1492,6 +3067,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -3056,6 +4831,2611 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3699,6 +8079,181 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5793,4 +10348,2184 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9932</v>
+      </c>
+      <c r="B3" s="0">
+        <v>769.1429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9818</v>
+      </c>
+      <c r="B4" s="0">
+        <v>746.2857</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9603</v>
+      </c>
+      <c r="B5" s="0">
+        <v>738.2857</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9353</v>
+      </c>
+      <c r="B6" s="0">
+        <v>731.4286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9109</v>
+      </c>
+      <c r="B7" s="0">
+        <v>726.8571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8871</v>
+      </c>
+      <c r="B8" s="0">
+        <v>722.2857</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8622</v>
+      </c>
+      <c r="B9" s="0">
+        <v>717.7143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8366</v>
+      </c>
+      <c r="B10" s="0">
+        <v>715.4286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8128</v>
+      </c>
+      <c r="B11" s="0">
+        <v>710.8571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7879</v>
+      </c>
+      <c r="B12" s="0">
+        <v>706.2857</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7618</v>
+      </c>
+      <c r="B13" s="0">
+        <v>702.8571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7374</v>
+      </c>
+      <c r="B14" s="0">
+        <v>698.2857</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7136</v>
+      </c>
+      <c r="B15" s="0">
+        <v>692.5714</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6875</v>
+      </c>
+      <c r="B16" s="0">
+        <v>690.2857</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6636</v>
+      </c>
+      <c r="B17" s="0">
+        <v>685.7143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6381</v>
+      </c>
+      <c r="B18" s="0">
+        <v>683.4286</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6132</v>
+      </c>
+      <c r="B19" s="0">
+        <v>678.8571</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5871</v>
+      </c>
+      <c r="B20" s="0">
+        <v>674.2857</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5627</v>
+      </c>
+      <c r="B21" s="0">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5377</v>
+      </c>
+      <c r="B22" s="0">
+        <v>667.4286</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5128</v>
+      </c>
+      <c r="B23" s="0">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4872</v>
+      </c>
+      <c r="B24" s="0">
+        <v>660.5714</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4628</v>
+      </c>
+      <c r="B25" s="0">
+        <v>657.1429</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4368</v>
+      </c>
+      <c r="B26" s="0">
+        <v>653.7143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4124</v>
+      </c>
+      <c r="B27" s="0">
+        <v>650.2857</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3868</v>
+      </c>
+      <c r="B28" s="0">
+        <v>646.8571</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.3613</v>
+      </c>
+      <c r="B29" s="0">
+        <v>642.2857</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.3369</v>
+      </c>
+      <c r="B30" s="0">
+        <v>637.7143</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.312</v>
+      </c>
+      <c r="B31" s="0">
+        <v>634.2857</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2864</v>
+      </c>
+      <c r="B32" s="0">
+        <v>628.5714</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.2598</v>
+      </c>
+      <c r="B33" s="0">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.2343</v>
+      </c>
+      <c r="B34" s="0">
+        <v>618.2857</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.2082</v>
+      </c>
+      <c r="B35" s="0">
+        <v>613.7143</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1809</v>
+      </c>
+      <c r="B36" s="0">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1554</v>
+      </c>
+      <c r="B37" s="0">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1305</v>
+      </c>
+      <c r="B38" s="0">
+        <v>589.7143</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.11</v>
+      </c>
+      <c r="B39" s="0">
+        <v>580.5714</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0964</v>
+      </c>
+      <c r="B40" s="0">
+        <v>573.7143</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0817</v>
+      </c>
+      <c r="B41" s="0">
+        <v>563.4286</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0664</v>
+      </c>
+      <c r="B42" s="0">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0539</v>
+      </c>
+      <c r="B43" s="0">
+        <v>542.8571</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0431</v>
+      </c>
+      <c r="B44" s="0">
+        <v>529.1429</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0335</v>
+      </c>
+      <c r="B45" s="0">
+        <v>514.2857</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0193</v>
+      </c>
+      <c r="B46" s="0">
+        <v>489.1429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0102</v>
+      </c>
+      <c r="B47" s="0">
+        <v>459.4286</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0057</v>
+      </c>
+      <c r="B48" s="0">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0006</v>
+      </c>
+      <c r="B49" s="0">
+        <v>370.2857</v>
+      </c>
+    </row>
+    <row r="50"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9938</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1177.1429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9818</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1131.4286</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9592</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1114.2857</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9348</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1105.1429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9115</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1098.2857</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8866</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8616</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1082.2857</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8366</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1076.5714</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8128</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1068.5714</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7873</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1060.5714</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7623</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1052.5714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7368</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1046.8571</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1041.1429</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6863</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1033.1429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6625</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1026.2857</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6381</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1021.7143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6132</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1014.8571</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5871</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1006.8571</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5632</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1001.1429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5383</v>
+      </c>
+      <c r="B22" s="0">
+        <v>994.2857</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5128</v>
+      </c>
+      <c r="B23" s="0">
+        <v>986.2857</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4872</v>
+      </c>
+      <c r="B24" s="0">
+        <v>980.5714</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4628</v>
+      </c>
+      <c r="B25" s="0">
+        <v>974.8571</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4373</v>
+      </c>
+      <c r="B26" s="0">
+        <v>966.8571</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4124</v>
+      </c>
+      <c r="B27" s="0">
+        <v>958.8571</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3874</v>
+      </c>
+      <c r="B28" s="0">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.3619</v>
+      </c>
+      <c r="B29" s="0">
+        <v>942.8571</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.3364</v>
+      </c>
+      <c r="B30" s="0">
+        <v>932.5714</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.312</v>
+      </c>
+      <c r="B31" s="0">
+        <v>926.8571</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2859</v>
+      </c>
+      <c r="B32" s="0">
+        <v>914.2857</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.2592</v>
+      </c>
+      <c r="B33" s="0">
+        <v>905.1429</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.2348</v>
+      </c>
+      <c r="B34" s="0">
+        <v>894.8571</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.2082</v>
+      </c>
+      <c r="B35" s="0">
+        <v>882.2857</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1809</v>
+      </c>
+      <c r="B36" s="0">
+        <v>867.4286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1554</v>
+      </c>
+      <c r="B37" s="0">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1305</v>
+      </c>
+      <c r="B38" s="0">
+        <v>835.4286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.1095</v>
+      </c>
+      <c r="B39" s="0">
+        <v>818.2857</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.1004</v>
+      </c>
+      <c r="B40" s="0">
+        <v>806.8571</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0908</v>
+      </c>
+      <c r="B41" s="0">
+        <v>793.1429</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0675</v>
+      </c>
+      <c r="B42" s="0">
+        <v>773.7143</v>
+      </c>
+    </row>
+    <row r="43"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9943</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1389.7143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9818</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1350.8571</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9603</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9353</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1316.5714</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9104</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8866</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1298.2857</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.861</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1291.4286</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8372</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1283.4286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8134</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1276.5714</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7879</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1268.5714</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7618</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1262.8571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7374</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1257.1429</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1250.2857</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6863</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1243.4286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6625</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1237.7143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6375</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1230.8571</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6126</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1226.2857</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5871</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1218.2857</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5627</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1212.5714</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5383</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1205.7143</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5122</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1198.8571</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4872</v>
+      </c>
+      <c r="B24" s="0">
+        <v>1190.8571</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4628</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1182.8571</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4362</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1173.7143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4118</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1163.4286</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3868</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1156.5714</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.3613</v>
+      </c>
+      <c r="B29" s="0">
+        <v>1141.7143</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.3364</v>
+      </c>
+      <c r="B30" s="0">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.3114</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1110.8571</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2864</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1090.2857</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.2609</v>
+      </c>
+      <c r="B33" s="0">
+        <v>1069.7143</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.2343</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1041.1429</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.2065</v>
+      </c>
+      <c r="B35" s="0">
+        <v>1010.2857</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1804</v>
+      </c>
+      <c r="B36" s="0">
+        <v>971.4286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1554</v>
+      </c>
+      <c r="B37" s="0">
+        <v>931.4286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1305</v>
+      </c>
+      <c r="B38" s="0">
+        <v>893.7143</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.11</v>
+      </c>
+      <c r="B39" s="0">
+        <v>858.2857</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0998</v>
+      </c>
+      <c r="B40" s="0">
+        <v>835.4286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0896</v>
+      </c>
+      <c r="B41" s="0">
+        <v>819.4286</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0822</v>
+      </c>
+      <c r="B42" s="0">
+        <v>803.4286</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0749</v>
+      </c>
+      <c r="B43" s="0">
+        <v>782.8571</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0647</v>
+      </c>
+      <c r="B44" s="0">
+        <v>757.7143</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.055</v>
+      </c>
+      <c r="B45" s="0">
+        <v>733.7143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0442</v>
+      </c>
+      <c r="B46" s="0">
+        <v>705.1429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0346</v>
+      </c>
+      <c r="B47" s="0">
+        <v>678.8571</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0284</v>
+      </c>
+      <c r="B48" s="0">
+        <v>653.7143</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.017</v>
+      </c>
+      <c r="B49" s="0">
+        <v>621.7143</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0102</v>
+      </c>
+      <c r="B50" s="0">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0051</v>
+      </c>
+      <c r="B51" s="0">
+        <v>549.7143</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B52" s="0">
+        <v>517.7143</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0006</v>
+      </c>
+      <c r="B53" s="0">
+        <v>492.5714</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0</v>
+      </c>
+      <c r="B54" s="0">
+        <v>437.7143</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B55" s="0">
+        <v>394.2857</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0</v>
+      </c>
+      <c r="B56" s="0">
+        <v>341.7143</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>-0.0023</v>
+      </c>
+      <c r="B57" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9949</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1251.4286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9813</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1206.8571</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9597</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1189.7143</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9353</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1177.1429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9109</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8871</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1163.4286</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8605</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1154.2857</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8366</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1148.5714</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8128</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1141.7143</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7879</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1138.2857</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7606</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1134.8571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7362</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1131.4286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7119</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1124.5714</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6863</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1121.1429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6636</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1115.4286</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6393</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1110.8571</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6137</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1106.2857</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5876</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1101.7143</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5638</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1097.1429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5377</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1092.5714</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5128</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4878</v>
+      </c>
+      <c r="B24" s="0">
+        <v>1082.2857</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4628</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1077.7143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4379</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1073.1429</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4135</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1068.5714</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3874</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1061.7143</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.3625</v>
+      </c>
+      <c r="B29" s="0">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.3381</v>
+      </c>
+      <c r="B30" s="0">
+        <v>1051.4286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.3125</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1043.4286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2859</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1035.4286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.2615</v>
+      </c>
+      <c r="B33" s="0">
+        <v>1026.2857</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.2354</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1013.7143</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.2082</v>
+      </c>
+      <c r="B35" s="0">
+        <v>1001.1429</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1809</v>
+      </c>
+      <c r="B36" s="0">
+        <v>982.8571</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.156</v>
+      </c>
+      <c r="B37" s="0">
+        <v>962.2857</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1316</v>
+      </c>
+      <c r="B38" s="0">
+        <v>933.7143</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.1095</v>
+      </c>
+      <c r="B39" s="0">
+        <v>905.1429</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0993</v>
+      </c>
+      <c r="B40" s="0">
+        <v>891.4286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0891</v>
+      </c>
+      <c r="B41" s="0">
+        <v>876.5714</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0811</v>
+      </c>
+      <c r="B42" s="0">
+        <v>866.2857</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0754</v>
+      </c>
+      <c r="B43" s="0">
+        <v>850.2857</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0652</v>
+      </c>
+      <c r="B44" s="0">
+        <v>828.5714</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0556</v>
+      </c>
+      <c r="B45" s="0">
+        <v>805.7143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0437</v>
+      </c>
+      <c r="B46" s="0">
+        <v>778.2857</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0346</v>
+      </c>
+      <c r="B47" s="0">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0272</v>
+      </c>
+      <c r="B48" s="0">
+        <v>724.5714</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0182</v>
+      </c>
+      <c r="B49" s="0">
+        <v>691.4286</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0096</v>
+      </c>
+      <c r="B50" s="0">
+        <v>649.1429</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0051</v>
+      </c>
+      <c r="B51" s="0">
+        <v>621.7143</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0028</v>
+      </c>
+      <c r="B52" s="0">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0023</v>
+      </c>
+      <c r="B53" s="0">
+        <v>573.7143</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0017</v>
+      </c>
+      <c r="B54" s="0">
+        <v>550.8571</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0</v>
+      </c>
+      <c r="B55" s="0">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B56" s="0">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B57" s="0">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>-0.0006</v>
+      </c>
+      <c r="B58" s="0">
+        <v>406.8571</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.0006</v>
+      </c>
+      <c r="B59" s="0">
+        <v>370.2857</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0</v>
+      </c>
+      <c r="B60" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B61" s="0">
+        <v>273.1429</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B62" s="0">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B63" s="0">
+        <v>213.7143</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B64" s="0">
+        <v>187.4286</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>-0.0017</v>
+      </c>
+      <c r="B65" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B66" s="0">
+        <v>100.5714</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>-0.0034</v>
+      </c>
+      <c r="B67" s="0">
+        <v>49.1429</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>-0.0028</v>
+      </c>
+      <c r="B68" s="0">
+        <v>1.1429</v>
+      </c>
+    </row>
+    <row r="69"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9949</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1212.5714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9818</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1097.1429</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9597</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1082.2857</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9359</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1074.2857</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9109</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1067.4286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8871</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1060.5714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8616</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1053.7143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8372</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1046.8571</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8128</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1038.8571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7884</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1033.1429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7618</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1025.1429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7368</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1020.5714</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1013.7143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6869</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1005.7143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6619</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6381</v>
+      </c>
+      <c r="B18" s="0">
+        <v>993.1429</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6132</v>
+      </c>
+      <c r="B19" s="0">
+        <v>987.4286</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5871</v>
+      </c>
+      <c r="B20" s="0">
+        <v>979.4286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5627</v>
+      </c>
+      <c r="B21" s="0">
+        <v>972.5714</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5383</v>
+      </c>
+      <c r="B22" s="0">
+        <v>966.8571</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5139</v>
+      </c>
+      <c r="B23" s="0">
+        <v>962.2857</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4872</v>
+      </c>
+      <c r="B24" s="0">
+        <v>955.4286</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.464</v>
+      </c>
+      <c r="B25" s="0">
+        <v>947.4286</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4373</v>
+      </c>
+      <c r="B26" s="0">
+        <v>940.5714</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4124</v>
+      </c>
+      <c r="B27" s="0">
+        <v>933.7143</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3874</v>
+      </c>
+      <c r="B28" s="0">
+        <v>926.8571</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.3619</v>
+      </c>
+      <c r="B29" s="0">
+        <v>918.8571</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.3375</v>
+      </c>
+      <c r="B30" s="0">
+        <v>909.7143</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.3125</v>
+      </c>
+      <c r="B31" s="0">
+        <v>899.4286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2864</v>
+      </c>
+      <c r="B32" s="0">
+        <v>889.1429</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.2604</v>
+      </c>
+      <c r="B33" s="0">
+        <v>881.1429</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.2337</v>
+      </c>
+      <c r="B34" s="0">
+        <v>865.1429</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.2076</v>
+      </c>
+      <c r="B35" s="0">
+        <v>850.2857</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1809</v>
+      </c>
+      <c r="B36" s="0">
+        <v>833.1429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1554</v>
+      </c>
+      <c r="B37" s="0">
+        <v>810.2857</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1305</v>
+      </c>
+      <c r="B38" s="0">
+        <v>787.4286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.11</v>
+      </c>
+      <c r="B39" s="0">
+        <v>764.5714</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0993</v>
+      </c>
+      <c r="B40" s="0">
+        <v>750.8571</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0891</v>
+      </c>
+      <c r="B41" s="0">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0771</v>
+      </c>
+      <c r="B42" s="0">
+        <v>717.7143</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0652</v>
+      </c>
+      <c r="B43" s="0">
+        <v>699.4286</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.055</v>
+      </c>
+      <c r="B44" s="0">
+        <v>678.8571</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0442</v>
+      </c>
+      <c r="B45" s="0">
+        <v>658.2857</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0357</v>
+      </c>
+      <c r="B46" s="0">
+        <v>634.2857</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0272</v>
+      </c>
+      <c r="B47" s="0">
+        <v>617.1429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0199</v>
+      </c>
+      <c r="B48" s="0">
+        <v>597.7143</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0125</v>
+      </c>
+      <c r="B49" s="0">
+        <v>545.1429</v>
+      </c>
+    </row>
+    <row r="50"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>